--- a/public/archivos/obligados/obligados.xlsx
+++ b/public/archivos/obligados/obligados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="179">
   <si>
     <t xml:space="preserve">RUC</t>
   </si>
@@ -116,6 +116,447 @@
   </si>
   <si>
     <t xml:space="preserve">HUAMANI CAYLLAHUA DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINO REATEGUI PEDRO MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHARFF SAJAMI CARMELA                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo - R.S. 192-2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUILLEN MONTESINOS DILMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVAREZ DAZA TERESITA DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLIVEIRA DE MACHUCA LITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANRIQUE TUANAMA JESUS MATILDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORENO ALEGRE RAFAEL GERARDO                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boleta de venta y notas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inc. c Art. 2 R.S. 155-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIENA VALLES VICTORIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USCAMAITA CHOQUE MARIA MARGARITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTIZ CAMAVILCA JENNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANDA DAZA AUGUSTO CESAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MURRIETA RODRIGUEZ NEIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORE DE ECHEVARRIA CASIMIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIOS BERNALD JAMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECHEVARRIA ORE DAVID SANTIAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDOVAL TORRES CLARA LUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIOS CARRION BRAULIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIMBELA LEAL LALO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTESINOS CHAVEZ CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRION MAYTA CELIA JANETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ SHUÑA OLINDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLORES GUTIERREZ JAIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA CRUZ MORENO PABLO AMADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARBAJAL TORRES JACINTO MILTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCHOA RIOS GABRIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIOS TRIGOSO JOSE ROGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMERO CALIXTO DE MORALES CELIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALOME ALVARADO FELIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODICIO ASAYAC NIXON FRANKLIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LA GALA CARAZZA MIGUEL ANGEL                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTRINA URBINA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVILA FUCHS NANCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACHING ROMAYNA SHIRLEY JESSICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVEZ SILVA NORMA VICTORIA                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALERIANO AREVALO ALAIN RAUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABOYA GUERRA LLERLIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORDOVA MIGUEL HERNAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAYMUNDO ROJAS MELANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULINO CABELLO FLORENCIO GUZMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLAIQUI OVIEDO CESAR ADOLFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARDALES QUIROZ DIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIREZ LOPEZ CARLOS ANDRES                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAUNA CANAZA ANGELA MAGDALENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIPAZAGA ROBALINO KAREN ESTEFITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATENCIO LOZANO TOMAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUIZ VARGAS KATTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPINAL NEYRA JHENY ELIZABETH                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAIPE CUSI PELAYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCAHUANA REDONDEZ MARINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAZO RIOS MANUEL ESTEBAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RONDINEL RISCO MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUÑIGA ARIAS CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENGIFO DIAZ CUSTODIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARAVIA TANTA SANTOS ANIBAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPINOZA RETIZ YOFRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPINOZA ALBENGRIN ROMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYALA VALENZUELA LUIS ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELLO TAPULLIMA ORFITH                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELLO FASABI HUGO                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEVALLOS ACOSTA JORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNCION CAIPO GENARO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIREZ DE LAMA JUAN DIEGO ROLANDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUÑOZ SANCHEZ LUZ MARIELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo I - R.S. 155-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMOS FLORES ERNESTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IZQUIERDO CASTRO CARLOS ENRIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURBANK CELI JORGE DAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVA RAMOS MIGUEL                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ SANCHEZ SEGUNDO HERNAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUCESION INDIVISA MEDINA LOAYZA CESAR ANDRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEON DE SORROZA PETRONILA                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDALGO LAMA OSCAR EDDIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMOS FERNANDEZ FERNANDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTIZ CLAVIJO JORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVIS GARRIDO VIRGINIA SOLEDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFANTES MICHILOT ZOILA ESTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUZ ZAPATA NEPTALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALDARRIAGA CURAY ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALVEZ SAAVEDRA JUAN MANUEL                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUIZ DE MARCHAN MARIA SOLEDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprobante de percepción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.S. 274-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEÑA ROSILLO SAUL                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADRID RUGEL SANTIAGO EDUVIGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIOS HENCKELL MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIOS OLAYA VICTOR WIGBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUZ MEDINA ARELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEIJOO DE ESCOBAR DESIDERIA MAGDALENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAVIJO YNFANTE ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORAN LUPU FERNANDO                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVARADO SERNA JUAN FRANCISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSALES ANCAJIMA MIRELLA NANCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OYOLA VILELA ROBERT DANY                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ LOAYZA HERBERT YSIDRO                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUERRERO ASTUDILLO JANET THESALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMENEZ HUAMAN GLORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REYES SANJINEZ YULY YOVANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAN NUNEZ MIGUEL                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BODERO PEÑA PERCY WILLIAM                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEVALLOS ESTRADA NIMBER AUGUSTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES MADRID LIDIA MERCEDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTRO ALVAREZ GENNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLIVARES VEINTIMILLA ARISULMA CATHERINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALDEZ HERRERA MARIA MARIBEL                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALMET SOTO LUIS AGUSTIN                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA CESPEDES MARICELA                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORAN CAMPOS RUBEN HENRRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAYONA RUJEL DARWIN WILFREDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTRO ARRUNATEGUI LUISA MILAGROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA AGUIRRE MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOTO GUTIERREZ DINA DEL PILAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFANTE CORDOVA JUAN CARLOS                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVIEDO VILLANUEVA JAVIER EDINSON                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAJUELO DE PURIZACA VILMA AURELIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTERO RAMIREZ LILIANA ELIZABETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ RAMIREZ MIGUEL EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALLADARES SILVA ROLANDO                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEMAN MEJIA EDISON DAVID                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOMEZ MENA RICARDO ALFONSO                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRERA ERAS DENIS VALENTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOBLECILLA CRUZ CARLOS AURELIO                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAN RIVAS MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALAZAR PEREZ JOAB CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ TORRES CARLOS WILFREDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRION VILLEGAS WILSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTILLA MARTINEZ MARIA ANITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORDOVA RAMIREZ JUAN FRANCISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTIZ BRUNO LUZ MARINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCHAN SILVA CALIXTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IZQUIERDO CORREA VIOLETA EMPERATRIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIREZ PANTA PEDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCELA NEYRA JOSE ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOTO GUTIERREZ CARMEN ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POMA RIVA ROBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TICONA MAYTA SOLEDAD LUCRECIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLANOS ARO PEDRO LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDORI MAMANI SANTA GENOVEVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARMIENTO GUTIERREZ FRANCISCA LIDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARI VARGAS DORIS LILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS JUSTO ADRIANA EUDOCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINA VELASQUEZ REGULO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALLEA QUISPE SILVERIA FORTUNATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUAMANI JORDAN AURELIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES LAURA JULIANA JUANA</t>
   </si>
 </sst>
 </file>
@@ -433,20 +874,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A165" activeCellId="0" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9540816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.6224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,6 +952,7 @@
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
@@ -533,6 +970,7 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
@@ -550,6 +988,7 @@
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
@@ -567,6 +1006,7 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
@@ -584,6 +1024,7 @@
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
@@ -601,6 +1042,7 @@
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
@@ -618,6 +1060,7 @@
       <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
@@ -635,6 +1078,7 @@
       <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
@@ -652,6 +1096,7 @@
       <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
@@ -669,6 +1114,7 @@
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
@@ -686,6 +1132,7 @@
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
@@ -703,6 +1150,7 @@
       <c r="E15" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
@@ -720,6 +1168,7 @@
       <c r="E16" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
@@ -737,6 +1186,7 @@
       <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
@@ -754,6 +1204,7 @@
       <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
@@ -771,6 +1222,7 @@
       <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
@@ -788,6 +1240,7 @@
       <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
@@ -805,6 +1258,2581 @@
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>10000694326</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>10000696469</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>10000697945</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>10000701292</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>10000710623</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>10000752971</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>10000766645</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>10000766645</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>43191</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>10000785569</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>10000800169</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>10000806078</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>10000820291</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>10000823461</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>10000828713</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>10000908954</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>10000915187</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>10000916531</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>10000917287</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>10000922213</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>10000935510</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>10000938543</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>10000946881</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>10000949944</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>10000953003</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>10000981490</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>10001008957</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
+        <v>10001020884</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
+        <v>10001022283</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>10001033030</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>10001046191</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>10001049203</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
+        <v>10001049670</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>10001056935</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
+        <v>10001069999</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
+        <v>10001093300</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
+        <v>10001106444</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>10001136661</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>10001180130</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
+        <v>10001187479</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>10001187886</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>10001188106</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
+        <v>10001222193</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>10001229481</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>10001242666</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
+        <v>10001245134</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
+        <v>10001254923</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="4" t="n">
+        <v>43313</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="n">
+        <v>10001256845</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="n">
+        <v>10001278385</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
+        <v>10001519919</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="n">
+        <v>10001520585</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="n">
+        <v>10001591768</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="n">
+        <v>10001597553</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="n">
+        <v>10001630852</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="n">
+        <v>10001659991</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="n">
+        <v>10001710589</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>10001819246</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>10001850941</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>10001858632</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>10001859795</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>10001861897</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>10001863351</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="n">
+        <v>10001880824</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>10002001042</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="n">
+        <v>10002018204</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <v>43101</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="n">
+        <v>10002024191</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>43101</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="n">
+        <v>10002027203</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="n">
+        <v>10002069020</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="n">
+        <v>10002095365</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="n">
+        <v>10002102442</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="n">
+        <v>10002138366</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="n">
+        <v>10002139648</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="n">
+        <v>10002155171</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <v>43313</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="n">
+        <v>10002166823</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="n">
+        <v>10002172505</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="n">
+        <v>10002172874</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="n">
+        <v>10002184007</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="n">
+        <v>10002198164</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="n">
+        <v>10002201891</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="n">
+        <v>10002202706</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="n">
+        <v>10002206230</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" s="4" t="n">
+        <v>42339</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="n">
+        <v>10002206230</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="n">
+        <v>10002211462</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="n">
+        <v>10002233491</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="n">
+        <v>10002237585</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="n">
+        <v>10002264582</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="n">
+        <v>10002286969</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="n">
+        <v>10002297723</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="n">
+        <v>10002335935</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="n">
+        <v>10002344896</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="n">
+        <v>10002362231</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="n">
+        <v>10002381449</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="n">
+        <v>10002388095</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="n">
+        <v>10002394061</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="n">
+        <v>10002394273</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="n">
+        <v>10002403698</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="n">
+        <v>10002407847</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="n">
+        <v>10002413855</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="n">
+        <v>10002419632</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="n">
+        <v>10002420703</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="n">
+        <v>10002427511</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="n">
+        <v>10002450599</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="n">
+        <v>10002450947</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="n">
+        <v>10002454055</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="n">
+        <v>10002474820</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="n">
+        <v>10002475991</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="n">
+        <v>10002485007</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="n">
+        <v>10002500952</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="4" t="n">
+        <v>43101</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="n">
+        <v>10002510001</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="n">
+        <v>10002522689</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="n">
+        <v>10002523430</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="n">
+        <v>10002547231</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="n">
+        <v>10002548203</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="n">
+        <v>10003209844</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="n">
+        <v>10003219068</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="n">
+        <v>10003229187</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="n">
+        <v>10003230878</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="n">
+        <v>10003233222</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="n">
+        <v>10003233630</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="n">
+        <v>10003287985</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="n">
+        <v>10003617942</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="4" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="n">
+        <v>10003625562</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="n">
+        <v>10003646462</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="n">
+        <v>10003646519</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="n">
+        <v>10003685034</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="n">
+        <v>10003685557</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="n">
+        <v>10003685671</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="n">
+        <v>10003702753</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="n">
+        <v>10003715618</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="n">
+        <v>10003727802</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="n">
+        <v>10003740477</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="n">
+        <v>10003741635</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="n">
+        <v>10003745347</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="n">
+        <v>10004003654</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="n">
+        <v>10004031739</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="n">
+        <v>10004033197</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="n">
+        <v>10004040487</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="n">
+        <v>10004042935</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="n">
+        <v>10004045403</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="n">
+        <v>10004060143</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3" t="n">
+        <v>10004076821</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3" t="n">
+        <v>10004082597</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3" t="n">
+        <v>10004086541</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="4" t="n">
+        <v>43405</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3" t="n">
+        <v>10004089770</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
